--- a/보고/보고양식(최예니).xlsx
+++ b/보고/보고양식(최예니).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yee62\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0859E35C-ADCD-43B7-88D3-AF8471879A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE10157-A913-4742-9AE2-84D153904180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,6 +430,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -442,15 +451,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1229,7 +1229,7 @@
     </row>
     <row r="7" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="10" t="s">
         <v>34</v>
       </c>
@@ -1291,7 +1291,7 @@
     </row>
     <row r="8" spans="2:23" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B10" s="19"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1477,7 @@
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B11" s="19"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -1680,10 +1680,10 @@
       </c>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="24" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="11" t="s">
@@ -1746,8 +1746,8 @@
       </c>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B15" s="25"/>
-      <c r="C15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="22"/>
       <c r="D15" s="7" t="s">
         <v>14</v>
       </c>
@@ -1808,8 +1808,8 @@
       </c>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B16" s="25"/>
-      <c r="C16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="22"/>
       <c r="D16" s="7" t="s">
         <v>15</v>
       </c>
@@ -1870,8 +1870,8 @@
       </c>
     </row>
     <row r="17" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B17" s="25"/>
-      <c r="C17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="22"/>
       <c r="D17" s="7" t="s">
         <v>16</v>
       </c>
@@ -1932,8 +1932,8 @@
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="10" t="s">
         <v>17</v>
       </c>
@@ -1994,8 +1994,8 @@
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2056,8 +2056,8 @@
       </c>
     </row>
     <row r="20" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="7" t="s">
         <v>27</v>
       </c>
@@ -2086,8 +2086,8 @@
       </c>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.6">
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="6">
@@ -2375,7 +2375,7 @@
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B25" s="19"/>
-      <c r="C25" s="28"/>
+      <c r="C25" s="22"/>
       <c r="D25" s="7" t="s">
         <v>21</v>
       </c>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B26" s="19"/>
-      <c r="C26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
         <v>22</v>
       </c>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B27" s="19"/>
-      <c r="C27" s="28"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>23</v>
       </c>
@@ -2561,7 +2561,7 @@
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B28" s="19"/>
-      <c r="C28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7" t="s">
         <v>24</v>
       </c>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B29" s="19"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7" t="s">
         <v>25</v>
       </c>
@@ -2685,7 +2685,7 @@
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B30" s="19"/>
-      <c r="C30" s="28"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="7" t="s">
         <v>26</v>
       </c>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B31" s="19"/>
-      <c r="C31" s="28"/>
+      <c r="C31" s="22"/>
       <c r="D31" s="7" t="s">
         <v>28</v>
       </c>
@@ -2809,7 +2809,7 @@
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B32" s="19"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B33" s="19"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
         <v>30</v>
       </c>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B34" s="20"/>
-      <c r="C34" s="29"/>
+      <c r="C34" s="23"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="6">
@@ -3013,7 +3013,7 @@
       <c r="B35" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="27" t="s">
+      <c r="C35" s="24" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="7" t="s">
@@ -3077,7 +3077,7 @@
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.6">
       <c r="B36" s="20"/>
-      <c r="C36" s="29"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="7"/>
       <c r="F36" s="6">
         <f t="shared" ref="F36:W36" si="5">AVERAGE(F35:F35)</f>
@@ -3673,8 +3673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" workbookViewId="0">
-      <selection activeCell="Q28" sqref="Q28"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="90" workbookViewId="0">
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -3686,7 +3686,8 @@
     <col min="5" max="5" width="26.375" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="10.625" style="8" customWidth="1"/>
     <col min="7" max="20" width="10.625" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4" customWidth="1"/>
+    <col min="21" max="21" width="9" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.6">
@@ -3795,7 +3796,7 @@
       </c>
       <c r="S3" s="6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="T3" s="6">
         <f t="shared" si="0"/>
@@ -3916,7 +3917,7 @@
     </row>
     <row r="7" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B7" s="19"/>
-      <c r="C7" s="22"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
@@ -3969,7 +3970,7 @@
     </row>
     <row r="8" spans="2:20" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B8" s="19"/>
-      <c r="C8" s="22"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="7" t="s">
         <v>46</v>
       </c>
@@ -4022,7 +4023,7 @@
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B9" s="19"/>
-      <c r="C9" s="22"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="7" t="s">
         <v>48</v>
       </c>
@@ -4075,7 +4076,7 @@
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B10" s="19"/>
-      <c r="C10" s="22"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="9">
@@ -4126,7 +4127,7 @@
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B11" s="19"/>
-      <c r="C11" s="22"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="9">
@@ -4177,7 +4178,7 @@
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B12" s="19"/>
-      <c r="C12" s="22"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="9"/>
@@ -4198,7 +4199,7 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B13" s="19"/>
-      <c r="C13" s="22"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="9"/>
@@ -4219,7 +4220,7 @@
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B14" s="19"/>
-      <c r="C14" s="22"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="9"/>
@@ -4240,7 +4241,7 @@
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B15" s="19"/>
-      <c r="C15" s="22"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="9">
@@ -4291,7 +4292,7 @@
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B16" s="20"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="15"/>
       <c r="E16" s="7"/>
       <c r="F16" s="6">
@@ -4356,10 +4357,10 @@
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="24" t="s">
         <v>50</v>
       </c>
       <c r="D17" s="10" t="s">
@@ -4413,8 +4414,8 @@
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B18" s="25"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="22"/>
       <c r="D18" s="7" t="s">
         <v>28</v>
       </c>
@@ -4466,8 +4467,8 @@
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B19" s="25"/>
-      <c r="C19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="22"/>
       <c r="D19" s="13"/>
       <c r="E19" s="7"/>
       <c r="F19" s="9">
@@ -4517,8 +4518,8 @@
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B20" s="25"/>
-      <c r="C20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="13"/>
       <c r="E20" s="7"/>
       <c r="F20" s="9">
@@ -4568,8 +4569,8 @@
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B21" s="25"/>
-      <c r="C21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="13"/>
       <c r="E21" s="7"/>
       <c r="F21" s="9">
@@ -4619,8 +4620,8 @@
       </c>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B22" s="25"/>
-      <c r="C22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="22"/>
       <c r="D22" s="13"/>
       <c r="E22" s="7"/>
       <c r="F22" s="9">
@@ -4670,8 +4671,8 @@
       </c>
     </row>
     <row r="23" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B23" s="25"/>
-      <c r="C23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="13"/>
       <c r="E23" s="7"/>
       <c r="F23" s="9">
@@ -4721,8 +4722,8 @@
       </c>
     </row>
     <row r="24" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="14"/>
       <c r="E24" s="7"/>
       <c r="F24" s="6">
@@ -4844,8 +4845,8 @@
       </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B26" s="25"/>
-      <c r="C26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="22"/>
       <c r="D26" s="7" t="s">
         <v>38</v>
       </c>
@@ -4890,15 +4891,15 @@
         <v>0</v>
       </c>
       <c r="S26" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B27" s="25"/>
-      <c r="C27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="7" t="s">
         <v>3</v>
       </c>
@@ -4943,15 +4944,15 @@
         <v>0</v>
       </c>
       <c r="S27" s="9">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T27" s="9">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.6">
-      <c r="B28" s="25"/>
-      <c r="C28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="22"/>
       <c r="D28" s="7" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +4997,7 @@
         <v>0</v>
       </c>
       <c r="S28" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28" s="9">
         <v>0</v>
@@ -5004,7 +5005,7 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B29" s="19"/>
-      <c r="C29" s="28"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="7" t="s">
         <v>6</v>
       </c>
@@ -5049,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="S29" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29" s="9">
         <v>0</v>
@@ -5057,7 +5058,7 @@
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B30" s="20"/>
-      <c r="C30" s="29"/>
+      <c r="C30" s="23"/>
       <c r="D30" s="17"/>
       <c r="E30" s="7"/>
       <c r="F30" s="6">
@@ -5114,7 +5115,7 @@
       </c>
       <c r="S30" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30" s="6">
         <f t="shared" si="3"/>
@@ -5180,7 +5181,7 @@
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B32" s="19"/>
-      <c r="C32" s="28"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="7" t="s">
         <v>14</v>
       </c>
@@ -5233,7 +5234,7 @@
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B33" s="19"/>
-      <c r="C33" s="28"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="7" t="s">
         <v>15</v>
       </c>
@@ -5286,7 +5287,7 @@
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B34" s="19"/>
-      <c r="C34" s="28"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="7" t="s">
         <v>16</v>
       </c>
@@ -5339,7 +5340,7 @@
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B35" s="19"/>
-      <c r="C35" s="28"/>
+      <c r="C35" s="22"/>
       <c r="D35" s="10" t="s">
         <v>17</v>
       </c>
@@ -5392,7 +5393,7 @@
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B36" s="19"/>
-      <c r="C36" s="28"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="10" t="s">
         <v>18</v>
       </c>
@@ -5445,7 +5446,7 @@
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B37" s="19"/>
-      <c r="C37" s="28"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="7" t="s">
         <v>27</v>
       </c>
@@ -5498,7 +5499,7 @@
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B38" s="19"/>
-      <c r="C38" s="28"/>
+      <c r="C38" s="22"/>
       <c r="D38" s="7" t="s">
         <v>40</v>
       </c>
@@ -5551,7 +5552,7 @@
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.6">
       <c r="B39" s="20"/>
-      <c r="C39" s="29"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="14"/>
       <c r="E39" s="7"/>
       <c r="F39" s="6">
